--- a/src/DataDriven/Book1.xlsx
+++ b/src/DataDriven/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vinuthar/eclipse-workspace/Selenium-WebDriver-with-Java/src/DataDriven/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE12C76A-773B-154D-877C-5DBB12DE2F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE4767A-A77D-8C4C-8F7A-F9BA54626783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3140" yWindow="2820" windowWidth="28040" windowHeight="17440" xr2:uid="{916FA19D-3BD4-BC4D-9721-EEC907809DF9}"/>
+    <workbookView minimized="1" xWindow="3140" yWindow="2820" windowWidth="28040" windowHeight="17440" xr2:uid="{916FA19D-3BD4-BC4D-9721-EEC907809DF9}"/>
   </bookViews>
   <sheets>
     <sheet name="UserData" sheetId="1" r:id="rId1"/>
@@ -472,7 +472,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
